--- a/data/trans_camb/P27D_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27D_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +513,9 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +530,49 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz2/Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Mz2/Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2/Mz1</t>
         </is>
@@ -542,6 +584,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +601,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>-8,37</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>2,1</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-3,43</t>
         </is>
@@ -579,15 +639,30 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-8,32; 3,25</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>-15,78; -1,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 8,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>-4,31; 8,19</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 4,35</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>-8,33; 1,0</t>
         </is>
@@ -602,15 +677,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-46,28%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>-77,4%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>39,63%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-41,69%</t>
         </is>
@@ -625,15 +715,30 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 6,57</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-43,81; 322,28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>-54,17; 396,35</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-59,89; 160,11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>-73,95; 24,63</t>
         </is>
@@ -652,15 +757,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>-3,4</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>1,19</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>-1,14</t>
         </is>
@@ -675,15 +795,30 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-5,91; 2,14</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>-9,72; 1,05</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 11,55</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>-6,79; 8,54</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 5,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>-6,27; 3,36</t>
         </is>
@@ -698,15 +833,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-45,76%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>-65,46%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42,77%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>9,12%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>-12,61%</t>
         </is>
@@ -721,15 +871,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 140,43</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-20,24; 185,9</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>-41,89; 91,1</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-35,1; 122,22</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>-52,42; 54,11</t>
         </is>
@@ -748,15 +913,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>2,4</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>1,16</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>1,82</t>
         </is>
@@ -771,15 +951,30 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-1,98; 7,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>-1,74; 7,43</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 5,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>-3,99; 5,84</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 4,49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>-1,47; 5,18</t>
         </is>
@@ -794,15 +989,30 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>57,45%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>65,22%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>15,11%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19,47%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>32,69%</t>
         </is>
@@ -817,15 +1027,30 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-44,86; 347,61</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>-45,81; 363,86</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-38,61; 89,51</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>-40,9; 118,36</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-29,64; 91,6</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>-23,33; 133,76</t>
         </is>
@@ -844,15 +1069,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>1,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>3,82</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>2,37</t>
         </is>
@@ -867,15 +1107,30 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-5,73; 5,35</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>-4,28; 7,14</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 5,54</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>-0,99; 8,31</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 4,22</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>-0,99; 5,94</t>
         </is>
@@ -890,15 +1145,30 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-10,47%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>15,36%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>82,82%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>40,84%</t>
         </is>
@@ -913,15 +1183,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-56,24; 88,05</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>-49,78; 161,79</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-44,53; 98,57</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-20,11; 285,63</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-33,13; 64,88</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-16,71; 133,78</t>
         </is>
@@ -940,15 +1225,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>-4,42</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,64</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>-2,44</t>
         </is>
@@ -963,15 +1263,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>-3,02; 9,04</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
           <t>-11,38; 2,89</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 3,12</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>-7,1; 4,83</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 4,08</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>-6,69; 2,24</t>
         </is>
@@ -986,15 +1301,30 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>29,06%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>-29,17%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-22,25%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-5,75%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-3,1%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>-18,74%</t>
         </is>
@@ -1009,15 +1339,30 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-30,44; 154,5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
           <t>-60,36; 29,82</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-54,19; 35,66</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>-48,46; 58,68</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-34,95; 50,79</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>-44,62; 21,34</t>
         </is>
@@ -1036,15 +1381,30 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>-7,27</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>-4,14</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-3,34</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>-2,24</t>
         </is>
@@ -1059,15 +1419,30 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>-16,65; 0,62</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
           <t>-6,83; 7,86</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 7,02</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>-12,73; 4,67</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 3,05</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>-8,36; 3,22</t>
         </is>
@@ -1082,15 +1457,30 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>-40,23%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
           <t>3,19%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-2,17%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>-25,6%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>-22,47%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>-16,29%</t>
         </is>
@@ -1105,15 +1495,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-72,54; 8,28</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>-52,81; 108,32</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-59,82; 94,72</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>-58,67; 40,67</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>-50,78; 28,0</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>-48,16; 31,34</t>
         </is>
@@ -1132,15 +1537,30 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
           <t>-1,63</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>-0,66</t>
         </is>
@@ -1155,15 +1575,30 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
+          <t>-3,61; 1,4</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
           <t>-4,13; 0,82</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 3,32</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>-2,26; 3,05</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 1,74</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>-2,41; 1,17</t>
         </is>
@@ -1178,15 +1613,30 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>-14,54%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
           <t>-19,69%</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>2,96%</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
         <is>
           <t>-7,19%</t>
         </is>
@@ -1201,15 +1651,30 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-39,35; 21,78</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
           <t>-42,23; 12,17</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-16,94; 40,73</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>-19,2; 35,02</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 22,73</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
         <is>
           <t>-24,37; 14,31</t>
         </is>
@@ -1223,9 +1688,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
